--- a/be-practitioner.xlsx
+++ b/be-practitioner.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="321">
   <si>
     <t>Path</t>
   </si>
@@ -350,7 +350,7 @@
   </si>
   <si>
     <t>An identifier that applies to this person in this role.
-Typically, a NIHDI value and/or a SSIN value are given. Flows in organizations will most likely want to also include a local identifier, using its own system. A type can be added if needed.</t>
+Typically, a NIHDI value and/or a SSIN value are given. Other systems remain allowed. Flows in organizations will most likely want to also include a local identifier, using its own system. A type can be added if needed.</t>
   </si>
   <si>
     <t>Often, specific identities are assigned for the agent.</t>
@@ -666,43 +666,6 @@
   </si>
   <si>
     <t>This is used where an item may repeat to indicate the language of each repeat.</t>
-  </si>
-  <si>
-    <t>Practitioner.address.extension.id</t>
-  </si>
-  <si>
-    <t>Practitioner.address.extension.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.address.extension.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/language</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Practitioner.address.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosage</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>A stream of bytes, base64 encoded</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCode</t>
   </si>
   <si>
     <t>Practitioner.address.use</t>
@@ -1227,7 +1190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI72"/>
+  <dimension ref="A1:AI67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5779,22 +5742,26 @@
         <v>36</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>36</v>
       </c>
@@ -5806,7 +5773,7 @@
         <v>36</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>36</v>
@@ -5818,13 +5785,13 @@
         <v>36</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>36</v>
+        <v>208</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>36</v>
@@ -5842,7 +5809,7 @@
         <v>36</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>37</v>
@@ -5851,26 +5818,26 @@
         <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>36</v>
@@ -5879,19 +5846,19 @@
         <v>36</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>116</v>
+        <v>213</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -5905,7 +5872,7 @@
         <v>36</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>36</v>
@@ -5917,48 +5884,48 @@
         <v>36</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>36</v>
+        <v>217</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>117</v>
+        <v>218</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5966,7 +5933,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>43</v>
@@ -5978,27 +5945,35 @@
         <v>36</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>205</v>
+        <v>36</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>36</v>
+        <v>224</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>36</v>
@@ -6034,24 +6009,24 @@
         <v>36</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6062,7 +6037,7 @@
         <v>37</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>36</v>
@@ -6071,19 +6046,19 @@
         <v>36</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6097,7 +6072,7 @@
         <v>36</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>36</v>
@@ -6123,21 +6098,23 @@
       <c r="AA49" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="AB49" s="2"/>
+      <c r="AB49" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AC49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>50</v>
@@ -6148,13 +6125,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>36</v>
+        <v>233</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6170,19 +6145,19 @@
         <v>36</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6196,7 +6171,7 @@
         <v>36</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>36</v>
@@ -6208,13 +6183,13 @@
         <v>36</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>36</v>
@@ -6232,7 +6207,7 @@
         <v>36</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>37</v>
@@ -6249,11 +6224,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>36</v>
+        <v>239</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6266,26 +6241,24 @@
         <v>36</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>36</v>
       </c>
@@ -6297,7 +6270,7 @@
         <v>36</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>36</v>
@@ -6309,13 +6282,13 @@
         <v>36</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>221</v>
+        <v>36</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>36</v>
@@ -6333,7 +6306,7 @@
         <v>36</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>37</v>
@@ -6350,11 +6323,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>36</v>
+        <v>246</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6373,16 +6346,16 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -6396,7 +6369,7 @@
         <v>36</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>227</v>
+        <v>36</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>36</v>
@@ -6408,13 +6381,13 @@
         <v>36</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>229</v>
+        <v>36</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>36</v>
@@ -6432,7 +6405,7 @@
         <v>36</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>37</v>
@@ -6449,11 +6422,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>36</v>
+        <v>251</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -6475,17 +6448,15 @@
         <v>111</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>36</v>
       </c>
@@ -6497,7 +6468,7 @@
         <v>36</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>36</v>
@@ -6533,7 +6504,7 @@
         <v>36</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>37</v>
@@ -6550,7 +6521,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6561,7 +6532,7 @@
         <v>37</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>36</v>
@@ -6576,13 +6547,13 @@
         <v>111</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -6596,7 +6567,7 @@
         <v>36</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>242</v>
+        <v>36</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>36</v>
@@ -6632,13 +6603,13 @@
         <v>36</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>50</v>
@@ -6649,11 +6620,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -6672,18 +6643,20 @@
         <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>36</v>
       </c>
@@ -6695,7 +6668,7 @@
         <v>36</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>36</v>
@@ -6731,7 +6704,7 @@
         <v>36</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>37</v>
@@ -6743,16 +6716,16 @@
         <v>50</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>51</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -6771,18 +6744,20 @@
         <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>36</v>
       </c>
@@ -6794,7 +6769,7 @@
         <v>36</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>36</v>
@@ -6806,13 +6781,13 @@
         <v>36</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>36</v>
+        <v>272</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>36</v>
@@ -6830,7 +6805,7 @@
         <v>36</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>37</v>
@@ -6847,11 +6822,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -6870,18 +6845,18 @@
         <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>111</v>
+        <v>275</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>36</v>
       </c>
@@ -6929,7 +6904,7 @@
         <v>36</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>37</v>
@@ -6946,18 +6921,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>36</v>
@@ -6966,21 +6941,23 @@
         <v>36</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>111</v>
+        <v>280</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>36</v>
       </c>
@@ -6992,7 +6969,7 @@
         <v>36</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>266</v>
+        <v>36</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>36</v>
@@ -7028,24 +7005,24 @@
         <v>36</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>51</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7056,7 +7033,7 @@
         <v>37</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>36</v>
@@ -7065,20 +7042,18 @@
         <v>36</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>111</v>
+        <v>287</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>36</v>
@@ -7127,13 +7102,13 @@
         <v>36</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>50</v>
@@ -7144,7 +7119,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7164,23 +7139,19 @@
         <v>36</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>274</v>
+        <v>112</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>36</v>
       </c>
@@ -7192,7 +7163,7 @@
         <v>36</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>277</v>
+        <v>36</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>36</v>
@@ -7228,7 +7199,7 @@
         <v>36</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>278</v>
+        <v>114</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>37</v>
@@ -7237,26 +7208,26 @@
         <v>43</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>157</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>36</v>
@@ -7265,23 +7236,21 @@
         <v>36</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>280</v>
+        <v>89</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>281</v>
+        <v>116</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>36</v>
       </c>
@@ -7305,81 +7274,83 @@
         <v>36</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>284</v>
+        <v>36</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>285</v>
+        <v>36</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>279</v>
+        <v>117</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>36</v>
+        <v>293</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>287</v>
+        <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N62" t="s" s="2">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>36</v>
@@ -7428,24 +7399,24 @@
         <v>36</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7468,19 +7439,17 @@
         <v>36</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>292</v>
+        <v>103</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>36</v>
@@ -7529,7 +7498,7 @@
         <v>36</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>37</v>
@@ -7541,12 +7510,12 @@
         <v>50</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>297</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7554,10 +7523,10 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>36</v>
@@ -7569,15 +7538,17 @@
         <v>36</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>299</v>
+        <v>128</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>36</v>
@@ -7602,13 +7573,13 @@
         <v>36</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>36</v>
+        <v>305</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>36</v>
+        <v>306</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>36</v>
+        <v>307</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>36</v>
@@ -7626,13 +7597,13 @@
         <v>36</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>50</v>
@@ -7643,7 +7614,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -7666,16 +7637,20 @@
         <v>36</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>112</v>
+        <v>309</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>36</v>
       </c>
@@ -7723,7 +7698,7 @@
         <v>36</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>114</v>
+        <v>308</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>37</v>
@@ -7732,26 +7707,26 @@
         <v>43</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>36</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>36</v>
@@ -7763,16 +7738,16 @@
         <v>36</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>116</v>
+        <v>314</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>91</v>
+        <v>315</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -7810,40 +7785,40 @@
         <v>36</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>117</v>
+        <v>312</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>96</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>305</v>
+        <v>36</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -7856,25 +7831,25 @@
         <v>36</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>91</v>
+        <v>319</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>36</v>
@@ -7899,13 +7874,13 @@
         <v>36</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>36</v>
@@ -7923,7 +7898,7 @@
         <v>36</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>37</v>
@@ -7935,510 +7910,11 @@
         <v>50</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI72" t="s" s="2">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI72">
+  <autoFilter ref="A1:AI67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8448,7 +7924,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI71">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/be-practitioner.xlsx
+++ b/be-practitioner.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="316">
   <si>
     <t>Path</t>
   </si>
@@ -628,7 +628,7 @@
     <t>Practitioner.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
+    <t xml:space="preserve">Address {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-address}
 </t>
   </si>
   <si>
@@ -650,22 +650,6 @@
   </si>
   <si>
     <t>Practitioner.address.extension</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {language}
-</t>
-  </si>
-  <si>
-    <t>Human Language for the item</t>
-  </si>
-  <si>
-    <t>The Human Language of the item.</t>
-  </si>
-  <si>
-    <t>This is used where an item may repeat to indicate the language of each repeat.</t>
   </si>
   <si>
     <t>Practitioner.address.use</t>
@@ -1190,7 +1174,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI67"/>
+  <dimension ref="A1:AI66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1530,7 +1514,7 @@
         <v>37</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>50</v>
@@ -1627,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>50</v>
@@ -1726,7 +1710,7 @@
         <v>37</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>50</v>
@@ -1825,7 +1809,7 @@
         <v>37</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>50</v>
@@ -1924,7 +1908,7 @@
         <v>37</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>50</v>
@@ -2718,7 +2702,7 @@
         <v>37</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>50</v>
@@ -2819,7 +2803,7 @@
         <v>37</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>50</v>
@@ -2920,7 +2904,7 @@
         <v>37</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>50</v>
@@ -3019,7 +3003,7 @@
         <v>37</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>50</v>
@@ -3118,7 +3102,7 @@
         <v>37</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>50</v>
@@ -3217,7 +3201,7 @@
         <v>37</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>50</v>
@@ -3615,7 +3599,7 @@
         <v>37</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>50</v>
@@ -3716,7 +3700,7 @@
         <v>37</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>50</v>
@@ -3817,7 +3801,7 @@
         <v>37</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>50</v>
@@ -3916,7 +3900,7 @@
         <v>37</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>50</v>
@@ -4015,7 +3999,7 @@
         <v>37</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>50</v>
@@ -4114,7 +4098,7 @@
         <v>37</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>50</v>
@@ -4512,7 +4496,7 @@
         <v>37</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>50</v>
@@ -4613,7 +4597,7 @@
         <v>37</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>50</v>
@@ -4714,7 +4698,7 @@
         <v>37</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>50</v>
@@ -4813,7 +4797,7 @@
         <v>37</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>50</v>
@@ -4912,7 +4896,7 @@
         <v>37</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>50</v>
@@ -5011,7 +4995,7 @@
         <v>37</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>50</v>
@@ -5114,7 +5098,7 @@
         <v>37</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>50</v>
@@ -5624,13 +5608,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B45" t="s" s="2">
         <v>197</v>
       </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -5643,24 +5625,26 @@
         <v>36</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>36</v>
       </c>
@@ -5672,7 +5656,7 @@
         <v>36</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>36</v>
@@ -5684,13 +5668,13 @@
         <v>36</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>36</v>
@@ -5708,7 +5692,7 @@
         <v>36</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>37</v>
@@ -5720,12 +5704,12 @@
         <v>50</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5742,7 +5726,7 @@
         <v>36</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>44</v>
@@ -5751,17 +5735,15 @@
         <v>64</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>36</v>
       </c>
@@ -5773,7 +5755,7 @@
         <v>36</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>36</v>
@@ -5788,10 +5770,10 @@
         <v>123</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>36</v>
@@ -5809,13 +5791,13 @@
         <v>36</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>50</v>
@@ -5826,7 +5808,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5849,18 +5831,20 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>36</v>
       </c>
@@ -5872,7 +5856,7 @@
         <v>36</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>36</v>
@@ -5884,13 +5868,13 @@
         <v>36</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>36</v>
@@ -5908,13 +5892,13 @@
         <v>36</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>50</v>
@@ -5925,7 +5909,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5936,7 +5920,7 @@
         <v>37</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>36</v>
@@ -5951,17 +5935,15 @@
         <v>111</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>36</v>
       </c>
@@ -5973,7 +5955,7 @@
         <v>36</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>36</v>
@@ -6009,13 +5991,13 @@
         <v>36</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>50</v>
@@ -6026,18 +6008,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>36</v>
+        <v>228</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>36</v>
@@ -6052,13 +6034,13 @@
         <v>111</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6072,7 +6054,7 @@
         <v>36</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>36</v>
@@ -6108,7 +6090,7 @@
         <v>36</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>37</v>
@@ -6125,11 +6107,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6151,13 +6133,13 @@
         <v>111</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6171,7 +6153,7 @@
         <v>36</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>36</v>
@@ -6207,13 +6189,13 @@
         <v>36</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>50</v>
@@ -6224,11 +6206,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6250,13 +6232,13 @@
         <v>111</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6270,7 +6252,7 @@
         <v>36</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>243</v>
+        <v>36</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>36</v>
@@ -6312,7 +6294,7 @@
         <v>37</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>50</v>
@@ -6355,7 +6337,7 @@
         <v>248</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -6369,7 +6351,7 @@
         <v>36</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>36</v>
@@ -6405,13 +6387,13 @@
         <v>36</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>50</v>
@@ -6422,11 +6404,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -6454,7 +6436,7 @@
         <v>253</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -6468,7 +6450,7 @@
         <v>36</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>254</v>
+        <v>36</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>36</v>
@@ -6510,7 +6492,7 @@
         <v>37</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>50</v>
@@ -6544,7 +6526,7 @@
         <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>257</v>
@@ -6553,9 +6535,11 @@
         <v>258</v>
       </c>
       <c r="M54" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>36</v>
       </c>
@@ -6567,7 +6551,7 @@
         <v>36</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>36</v>
+        <v>260</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>36</v>
@@ -6603,24 +6587,24 @@
         <v>36</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>51</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6643,19 +6627,19 @@
         <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>155</v>
+        <v>265</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>36</v>
@@ -6668,7 +6652,7 @@
         <v>36</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>36</v>
@@ -6680,13 +6664,13 @@
         <v>36</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>36</v>
+        <v>267</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>36</v>
@@ -6704,24 +6688,24 @@
         <v>36</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>157</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6744,19 +6728,17 @@
         <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>36</v>
@@ -6781,13 +6763,13 @@
         <v>36</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>272</v>
+        <v>36</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>273</v>
+        <v>36</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>36</v>
@@ -6805,13 +6787,13 @@
         <v>36</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>50</v>
@@ -6833,7 +6815,7 @@
         <v>37</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>36</v>
@@ -6842,7 +6824,7 @@
         <v>36</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>275</v>
@@ -6853,9 +6835,11 @@
       <c r="L57" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M57" s="2"/>
+      <c r="M57" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="N57" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>36</v>
@@ -6910,18 +6894,18 @@
         <v>37</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>51</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -6944,20 +6928,16 @@
         <v>36</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N58" t="s" s="2">
         <v>284</v>
       </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>36</v>
       </c>
@@ -7005,7 +6985,7 @@
         <v>36</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>37</v>
@@ -7017,12 +6997,12 @@
         <v>50</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>285</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7033,7 +7013,7 @@
         <v>37</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>36</v>
@@ -7045,13 +7025,13 @@
         <v>36</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>287</v>
+        <v>111</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>288</v>
+        <v>112</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>289</v>
+        <v>113</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7102,35 +7082,35 @@
         <v>36</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>286</v>
+        <v>114</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>36</v>
@@ -7142,15 +7122,17 @@
         <v>36</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>36</v>
@@ -7187,40 +7169,40 @@
         <v>36</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>87</v>
+        <v>288</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -7233,24 +7215,26 @@
         <v>36</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>89</v>
+        <v>289</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>116</v>
+        <v>290</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="N61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>36</v>
       </c>
@@ -7286,19 +7270,19 @@
         <v>36</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>37</v>
@@ -7319,7 +7303,7 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>293</v>
+        <v>36</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -7332,25 +7316,23 @@
         <v>36</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" s="2"/>
+      <c r="N62" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>36</v>
@@ -7399,7 +7381,7 @@
         <v>36</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>37</v>
@@ -7411,12 +7393,12 @@
         <v>50</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7424,10 +7406,10 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>36</v>
@@ -7439,18 +7421,18 @@
         <v>36</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>300</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>36</v>
       </c>
@@ -7474,13 +7456,13 @@
         <v>36</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>36</v>
+        <v>301</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>36</v>
+        <v>302</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>36</v>
@@ -7498,7 +7480,7 @@
         <v>36</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>37</v>
@@ -7515,7 +7497,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7523,7 +7505,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>43</v>
@@ -7538,18 +7520,20 @@
         <v>36</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>36</v>
       </c>
@@ -7573,13 +7557,13 @@
         <v>36</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>305</v>
+        <v>36</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>306</v>
+        <v>36</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>307</v>
+        <v>36</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>36</v>
@@ -7597,24 +7581,24 @@
         <v>36</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>51</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -7637,20 +7621,18 @@
         <v>36</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>311</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>36</v>
       </c>
@@ -7698,24 +7680,24 @@
         <v>36</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -7726,7 +7708,7 @@
         <v>37</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>36</v>
@@ -7738,18 +7720,20 @@
         <v>36</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>36</v>
       </c>
@@ -7773,13 +7757,13 @@
         <v>36</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>36</v>
@@ -7797,124 +7781,23 @@
         <v>36</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI67" t="s" s="2">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI67">
+  <autoFilter ref="A1:AI66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7924,7 +7807,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI66">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
